--- a/documenten/20191022 checklist_api_maturiteit.xlsx
+++ b/documenten/20191022 checklist_api_maturiteit.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicky\Documents\Netage\Rapporten\DIS-GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicky\git\disgeo-demo\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F9993C-07FE-4AD8-A496-E9C20B62E59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13FCA5-E32A-49A8-BC13-7AEC8AD5661E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad1" sheetId="2" r:id="rId2"/>
+    <sheet name="Criteria" sheetId="1" r:id="rId1"/>
+    <sheet name="api's" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Checklist API Maturiteit</t>
   </si>
@@ -109,15 +109,6 @@
     <t>Maturiteit per API</t>
   </si>
   <si>
-    <t>Is er verwijsbare documentatie van de begrippen beschikbaar?</t>
-  </si>
-  <si>
-    <t>Bevat de API alle benodige data/is de data compleet</t>
-  </si>
-  <si>
-    <t>De API stelt geen gebruiksbeperkende maatregelen?</t>
-  </si>
-  <si>
     <t>Opmerkingen</t>
   </si>
   <si>
@@ -182,13 +173,31 @@
   </si>
   <si>
     <t>Is er een data model beschikbaar</t>
+  </si>
+  <si>
+    <t>Dienst Uitvoerig Onderwijs API</t>
+  </si>
+  <si>
+    <t>Rijksdienst voor Cultureel Erfgoed API</t>
+  </si>
+  <si>
+    <t>Rijksdienst voor het Wegverkeer</t>
+  </si>
+  <si>
+    <t>De RCE biedt een API maar niet de mogelijkheid om een individueel monument te bevragen. Dit kan enkel voor een complete gemeente. Verder is er geen relatie tot data uit het kadaster en kan er niet geografisch worden gezocht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duo biedt een goed gevulde API. Deze heeft geen relatie tot andere datasets en bevat geen geo informatie. </t>
+  </si>
+  <si>
+    <t>De RDW api bevat veel informatie. Echter is de informatie veel verspreid. Zo bevat de dataset over parkeervakken meer dan 5 tabellen, dit maakt het lastig bruikbaar. De RDW data bevat geo informatie maar de geo informatie is niet bevraagbaar in de API.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,8 +221,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,20 +238,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF339966"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -395,21 +405,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="163" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="163" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="163" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -418,54 +416,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -850,316 +858,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="17"/>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="11" t="s">
-        <v>41</v>
+      <c r="C5" s="17"/>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="23"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="5"/>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="C9" s="15"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="17"/>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="5"/>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="17"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="17"/>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="11" t="s">
-        <v>44</v>
+      <c r="C14" s="24"/>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="B15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="C16" s="24"/>
+      <c r="D16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>12</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="5"/>
       <c r="E17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="15"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="C20" s="17"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>14</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="C21" s="24"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>15</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="11" t="s">
-        <v>45</v>
+      <c r="C22" s="24"/>
+      <c r="D22" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="5"/>
       <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>17</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="C26" s="17"/>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>18</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="11" t="s">
-        <v>47</v>
+      <c r="C27" s="17"/>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B6:C6"/>
@@ -1176,6 +1175,15 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1184,139 +1192,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L8:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="34.33203125" customWidth="1"/>
-    <col min="14" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="87.5703125" customWidth="1"/>
+    <col min="21" max="1032" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" ht="154.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>